--- a/pim/src/Pcmt/PcmtCustomDatasetBundle/Resources/fixtures/pcmt_global/import_files/7_product_models.xlsx
+++ b/pim/src/Pcmt/PcmtCustomDatasetBundle/Resources/fixtures/pcmt_global/import_files/7_product_models.xlsx
@@ -51,7 +51,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="0" t="inlineStr">
         <is>
           <t>code</t>
@@ -134,61 +134,66 @@
       </c>
       <c r="Q1" s="0" t="inlineStr">
         <is>
+          <t>REGULATORY_EXPIRE_DATE</t>
+        </is>
+      </c>
+      <c r="R1" s="0" t="inlineStr">
+        <is>
           <t>ROUTE_OF_ADMINISTRATION</t>
         </is>
       </c>
-      <c r="R1" s="0" t="inlineStr">
+      <c r="S1" s="0" t="inlineStr">
         <is>
           <t>SUBSTITUTION-groups</t>
         </is>
       </c>
-      <c r="S1" s="0" t="inlineStr">
+      <c r="T1" s="0" t="inlineStr">
         <is>
           <t>SUBSTITUTION-products</t>
         </is>
       </c>
-      <c r="T1" s="0" t="inlineStr">
+      <c r="U1" s="0" t="inlineStr">
         <is>
           <t>SUBSTITUTION-product_models</t>
         </is>
       </c>
-      <c r="U1" s="0" t="inlineStr">
+      <c r="V1" s="0" t="inlineStr">
         <is>
           <t>UNSPSC_CODE</t>
         </is>
       </c>
-      <c r="V1" s="0" t="inlineStr">
+      <c r="W1" s="0" t="inlineStr">
         <is>
           <t>UPSELL-groups</t>
         </is>
       </c>
-      <c r="W1" s="0" t="inlineStr">
+      <c r="X1" s="0" t="inlineStr">
         <is>
           <t>UPSELL-products</t>
         </is>
       </c>
-      <c r="X1" s="0" t="inlineStr">
+      <c r="Y1" s="0" t="inlineStr">
         <is>
           <t>UPSELL-product_models</t>
         </is>
       </c>
-      <c r="Y1" s="0" t="inlineStr">
+      <c r="Z1" s="0" t="inlineStr">
         <is>
           <t>X_SELL-groups</t>
         </is>
       </c>
-      <c r="Z1" s="0" t="inlineStr">
+      <c r="AA1" s="0" t="inlineStr">
         <is>
           <t>X_SELL-products</t>
         </is>
       </c>
-      <c r="AA1" s="0" t="inlineStr">
+      <c r="AB1" s="0" t="inlineStr">
         <is>
           <t>X_SELL-product_models</t>
         </is>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:28">
       <c r="A2" s="0" t="inlineStr">
         <is>
           <t>10001</t>
@@ -229,13 +234,13 @@
           <t>Female Condom (Latex), Inner Retention Ring</t>
         </is>
       </c>
-      <c r="U2" s="0" t="inlineStr">
+      <c r="V2" s="0" t="inlineStr">
         <is>
           <t>53131622</t>
         </is>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:28">
       <c r="A3" s="0" t="inlineStr">
         <is>
           <t>10002</t>
@@ -276,13 +281,13 @@
           <t>Female Condom (Latex), Inner Retention Sponge</t>
         </is>
       </c>
-      <c r="U3" s="0" t="inlineStr">
+      <c r="V3" s="0" t="inlineStr">
         <is>
           <t>53131622</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:28">
       <c r="A4" s="0" t="inlineStr">
         <is>
           <t>10000</t>
@@ -323,13 +328,13 @@
           <t>Female Condom (Nitrile), Inner Retention Ring</t>
         </is>
       </c>
-      <c r="U4" s="0" t="inlineStr">
+      <c r="V4" s="0" t="inlineStr">
         <is>
           <t>53131622</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:28">
       <c r="A5" s="0" t="inlineStr">
         <is>
           <t>11000</t>
@@ -370,13 +375,13 @@
           <t>Male Condom (Latex), 49 mm</t>
         </is>
       </c>
-      <c r="U5" s="0" t="inlineStr">
+      <c r="V5" s="0" t="inlineStr">
         <is>
           <t>53131622</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:28">
       <c r="A6" s="0" t="inlineStr">
         <is>
           <t>11001</t>
@@ -417,13 +422,13 @@
           <t>Male Condom (Latex), 51 mm</t>
         </is>
       </c>
-      <c r="U6" s="0" t="inlineStr">
+      <c r="V6" s="0" t="inlineStr">
         <is>
           <t>53131622</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:28">
       <c r="A7" s="0" t="inlineStr">
         <is>
           <t>11002</t>
@@ -464,13 +469,13 @@
           <t>Male Condom (Latex), 52 mm</t>
         </is>
       </c>
-      <c r="U7" s="0" t="inlineStr">
+      <c r="V7" s="0" t="inlineStr">
         <is>
           <t>53131622</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:28">
       <c r="A8" s="0" t="inlineStr">
         <is>
           <t>11003</t>
@@ -511,13 +516,13 @@
           <t>Male Condom (Latex), 53 mm</t>
         </is>
       </c>
-      <c r="U8" s="0" t="inlineStr">
+      <c r="V8" s="0" t="inlineStr">
         <is>
           <t>53131622</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:28">
       <c r="A9" s="0" t="inlineStr">
         <is>
           <t>11004</t>
@@ -558,13 +563,13 @@
           <t>Male Condom (Latex), 56 mm</t>
         </is>
       </c>
-      <c r="U9" s="0" t="inlineStr">
+      <c r="V9" s="0" t="inlineStr">
         <is>
           <t>53131622</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:28">
       <c r="A10" s="0" t="inlineStr">
         <is>
           <t>11005</t>
@@ -605,13 +610,13 @@
           <t>Male Condom (Latex), 58 mm</t>
         </is>
       </c>
-      <c r="U10" s="0" t="inlineStr">
+      <c r="V10" s="0" t="inlineStr">
         <is>
           <t>53131622</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:28">
       <c r="A11" s="0" t="inlineStr">
         <is>
           <t>1000</t>
@@ -662,18 +667,18 @@
           <t>Etonogestrel 68 mg/rod, 1 Rod Implant</t>
         </is>
       </c>
-      <c r="Q11" s="0" t="inlineStr">
+      <c r="R11" s="0" t="inlineStr">
         <is>
           <t>Parenteral_Slow_Release</t>
         </is>
       </c>
-      <c r="U11" s="0" t="inlineStr">
+      <c r="V11" s="0" t="inlineStr">
         <is>
           <t>51352005</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:28">
       <c r="A12" s="0" t="inlineStr">
         <is>
           <t>1001</t>
@@ -729,18 +734,18 @@
           <t>Levonorgestrel 75mg/rod, 2 Rod Implant, 3 Year Efficacy</t>
         </is>
       </c>
-      <c r="Q12" s="0" t="inlineStr">
+      <c r="R12" s="0" t="inlineStr">
         <is>
           <t>Parenteral_Slow_Release</t>
         </is>
       </c>
-      <c r="U12" s="0" t="inlineStr">
+      <c r="V12" s="0" t="inlineStr">
         <is>
           <t>51352006</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:28">
       <c r="A13" s="0" t="inlineStr">
         <is>
           <t>1002</t>
@@ -786,18 +791,18 @@
           <t>Levonorgestrel 75mg/rod, 2 Rod Implant, 5 Year Efficacy</t>
         </is>
       </c>
-      <c r="Q13" s="0" t="inlineStr">
+      <c r="R13" s="0" t="inlineStr">
         <is>
           <t>Parenteral_Slow_Release</t>
         </is>
       </c>
-      <c r="U13" s="0" t="inlineStr">
+      <c r="V13" s="0" t="inlineStr">
         <is>
           <t>51352006</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:28">
       <c r="A14" s="0" t="inlineStr">
         <is>
           <t>5000</t>
@@ -843,18 +848,18 @@
           <t>Depot Medroxyprogesterone Acetate 104 mg/0.65 mL, Subcutaneous, Pre-Filled Device</t>
         </is>
       </c>
-      <c r="Q14" s="0" t="inlineStr">
+      <c r="R14" s="0" t="inlineStr">
         <is>
           <t>Parenteral</t>
         </is>
       </c>
-      <c r="U14" s="0" t="inlineStr">
+      <c r="V14" s="0" t="inlineStr">
         <is>
           <t>51351612</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:28">
       <c r="A15" s="0" t="inlineStr">
         <is>
           <t>5001</t>
@@ -900,18 +905,18 @@
           <t>Depot Medroxyprogesterone Acetate 150 mg/ml (1ml) Vial, Intramuscular</t>
         </is>
       </c>
-      <c r="Q15" s="0" t="inlineStr">
+      <c r="R15" s="0" t="inlineStr">
         <is>
           <t>Parenteral</t>
         </is>
       </c>
-      <c r="U15" s="0" t="inlineStr">
+      <c r="V15" s="0" t="inlineStr">
         <is>
           <t>51351612</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:28">
       <c r="A16" s="0" t="inlineStr">
         <is>
           <t>5002</t>
@@ -957,18 +962,18 @@
           <t>Norethisterone Enantate 200 mg/mL (1 mL) Ampoule, Intramuscular</t>
         </is>
       </c>
-      <c r="Q16" s="0" t="inlineStr">
+      <c r="R16" s="0" t="inlineStr">
         <is>
           <t>Parenteral</t>
         </is>
       </c>
-      <c r="U16" s="0" t="inlineStr">
+      <c r="V16" s="0" t="inlineStr">
         <is>
           <t>51352008</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:28">
       <c r="A17" s="0" t="inlineStr">
         <is>
           <t>5003</t>
@@ -1014,18 +1019,18 @@
           <t>Norethisterone Enantate/Estradiol Valerate 50/5 mg/mL (1 mL) Ampoule, Intramuscular</t>
         </is>
       </c>
-      <c r="Q17" s="0" t="inlineStr">
+      <c r="R17" s="0" t="inlineStr">
         <is>
           <t>Parenteral</t>
         </is>
       </c>
-      <c r="U17" s="0" t="inlineStr">
+      <c r="V17" s="0" t="inlineStr">
         <is>
           <t>51352423</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:28">
       <c r="A18" s="0" t="inlineStr">
         <is>
           <t>6001</t>
@@ -1071,18 +1076,18 @@
           <t>Cu375 Intrauterine Device</t>
         </is>
       </c>
-      <c r="Q18" s="0" t="inlineStr">
+      <c r="R18" s="0" t="inlineStr">
         <is>
           <t>Vaginal</t>
         </is>
       </c>
-      <c r="U18" s="0" t="inlineStr">
+      <c r="V18" s="0" t="inlineStr">
         <is>
           <t>42143103</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:28">
       <c r="A19" s="0" t="inlineStr">
         <is>
           <t>6000</t>
@@ -1128,18 +1133,18 @@
           <t>TCu380A Intrauterine Device</t>
         </is>
       </c>
-      <c r="Q19" s="0" t="inlineStr">
+      <c r="R19" s="0" t="inlineStr">
         <is>
           <t>Vaginal</t>
         </is>
       </c>
-      <c r="U19" s="0" t="inlineStr">
+      <c r="V19" s="0" t="inlineStr">
         <is>
           <t>42143103</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:28">
       <c r="A20" s="0" t="inlineStr">
         <is>
           <t>2000</t>
@@ -1190,18 +1195,18 @@
           <t>Desogestrel/Ethinyl Estradiol 150/30 mcg, 21 Tablets/Cycle</t>
         </is>
       </c>
-      <c r="Q20" s="0" t="inlineStr">
+      <c r="R20" s="0" t="inlineStr">
         <is>
           <t>Oral_Solid</t>
         </is>
       </c>
-      <c r="U20" s="0" t="inlineStr">
+      <c r="V20" s="0" t="inlineStr">
         <is>
           <t>51352422</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:28">
       <c r="A21" s="0" t="inlineStr">
         <is>
           <t>2001</t>
@@ -1247,18 +1252,18 @@
           <t>Desogestrel/Ethinyl Estradiol 150/30 mcg + Placebo 28 Tablets/Cycle</t>
         </is>
       </c>
-      <c r="Q21" s="0" t="inlineStr">
+      <c r="R21" s="0" t="inlineStr">
         <is>
           <t>Oral_Solid</t>
         </is>
       </c>
-      <c r="U21" s="0" t="inlineStr">
+      <c r="V21" s="0" t="inlineStr">
         <is>
           <t>51352422</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:28">
       <c r="A22" s="0" t="inlineStr">
         <is>
           <t>2002</t>
@@ -1304,18 +1309,18 @@
           <t>Levonorgestrel/Ethinyl Estradiol 150/30 mcg, 21 Tablets/Cycle</t>
         </is>
       </c>
-      <c r="Q22" s="0" t="inlineStr">
+      <c r="R22" s="0" t="inlineStr">
         <is>
           <t>Oral_Solid</t>
         </is>
       </c>
-      <c r="U22" s="0" t="inlineStr">
+      <c r="V22" s="0" t="inlineStr">
         <is>
           <t>51352413</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:28">
       <c r="A23" s="0" t="inlineStr">
         <is>
           <t>2003</t>
@@ -1361,18 +1366,18 @@
           <t>Levonorgestrel/Ethinyl Estradiol 150/30 mcg + Ferrous Fumarate 75 mg, 28 Tablets/Cycle</t>
         </is>
       </c>
-      <c r="Q23" s="0" t="inlineStr">
+      <c r="R23" s="0" t="inlineStr">
         <is>
           <t>Oral_Solid</t>
         </is>
       </c>
-      <c r="U23" s="0" t="inlineStr">
+      <c r="V23" s="0" t="inlineStr">
         <is>
           <t>51352413</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:28">
       <c r="A24" s="0" t="inlineStr">
         <is>
           <t>2004</t>
@@ -1418,18 +1423,18 @@
           <t>Levonorgestrel/Ethinyl Estradiol 150/30 mcg + Placebo 28 Tablets/Cycle</t>
         </is>
       </c>
-      <c r="Q24" s="0" t="inlineStr">
+      <c r="R24" s="0" t="inlineStr">
         <is>
           <t>Oral_Solid</t>
         </is>
       </c>
-      <c r="U24" s="0" t="inlineStr">
+      <c r="V24" s="0" t="inlineStr">
         <is>
           <t>51352413</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:28">
       <c r="A25" s="0" t="inlineStr">
         <is>
           <t>3001</t>
@@ -1470,18 +1475,18 @@
           <t>Levonorgestrel 1.5 mg Tablet, 1 Tablet</t>
         </is>
       </c>
-      <c r="Q25" s="0" t="inlineStr">
+      <c r="R25" s="0" t="inlineStr">
         <is>
           <t>Oral_Solid</t>
         </is>
       </c>
-      <c r="U25" s="0" t="inlineStr">
+      <c r="V25" s="0" t="inlineStr">
         <is>
           <t>51352006</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:28">
       <c r="A26" s="0" t="inlineStr">
         <is>
           <t>3000</t>
@@ -1522,18 +1527,18 @@
           <t>Levonorgestrel 0.75 mg Tablet, 2 Tablets</t>
         </is>
       </c>
-      <c r="Q26" s="0" t="inlineStr">
+      <c r="R26" s="0" t="inlineStr">
         <is>
           <t>Oral_Solid</t>
         </is>
       </c>
-      <c r="U26" s="0" t="inlineStr">
+      <c r="V26" s="0" t="inlineStr">
         <is>
           <t>51352006</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:28">
       <c r="A27" s="0" t="inlineStr">
         <is>
           <t>4000</t>
@@ -1579,18 +1584,18 @@
           <t>Levonorgestrel 30 mcg Tablet, 35 Tablets/Cycle</t>
         </is>
       </c>
-      <c r="Q27" s="0" t="inlineStr">
+      <c r="R27" s="0" t="inlineStr">
         <is>
           <t>Oral_Solid</t>
         </is>
       </c>
-      <c r="U27" s="0" t="inlineStr">
+      <c r="V27" s="0" t="inlineStr">
         <is>
           <t>51352006</t>
         </is>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:28">
       <c r="A28" s="0" t="inlineStr">
         <is>
           <t>4001</t>
@@ -1636,18 +1641,18 @@
           <t>Lynestrenol 0.5 mg Tablet, 28 Tablets/Cycle</t>
         </is>
       </c>
-      <c r="Q28" s="0" t="inlineStr">
+      <c r="R28" s="0" t="inlineStr">
         <is>
           <t>Oral_Solid</t>
         </is>
       </c>
-      <c r="U28" s="0" t="inlineStr">
+      <c r="V28" s="0" t="inlineStr">
         <is>
           <t>51181914</t>
         </is>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:28">
       <c r="A29" s="0" t="inlineStr">
         <is>
           <t>4002</t>
@@ -1693,18 +1698,18 @@
           <t>Norethisterone 350 mcg Tablet, 28 Tablets/Cycle</t>
         </is>
       </c>
-      <c r="Q29" s="0" t="inlineStr">
+      <c r="R29" s="0" t="inlineStr">
         <is>
           <t>Oral_Solid</t>
         </is>
       </c>
-      <c r="U29" s="0" t="inlineStr">
+      <c r="V29" s="0" t="inlineStr">
         <is>
           <t>51352008</t>
         </is>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:28">
       <c r="A30" s="0" t="inlineStr">
         <is>
           <t>4003</t>
@@ -1750,18 +1755,18 @@
           <t>Norgestrel 75 mcg, 28 Tablets/Cycle</t>
         </is>
       </c>
-      <c r="Q30" s="0" t="inlineStr">
+      <c r="R30" s="0" t="inlineStr">
         <is>
           <t>Oral_Solid</t>
         </is>
       </c>
-      <c r="U30" s="0" t="inlineStr">
+      <c r="V30" s="0" t="inlineStr">
         <is>
           <t>51352011</t>
         </is>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:28">
       <c r="A31" s="0" t="inlineStr">
         <is>
           <t>7000</t>
@@ -1797,7 +1802,7 @@
           <t>Color-Coded Plastic Beads</t>
         </is>
       </c>
-      <c r="U31" s="0" t="inlineStr">
+      <c r="V31" s="0" t="inlineStr">
         <is>
           <t>42143103</t>
         </is>
